--- a/Test Data/LoginList.xlsx
+++ b/Test Data/LoginList.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Automation\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593D0ADC-8E92-4FF5-ADB0-D8FF9FA5AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17208" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HV" sheetId="1" r:id="rId1"/>
     <sheet name="MV1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>USERS_NAME</t>
   </si>
@@ -145,193 +134,118 @@
     <t>RAJESH</t>
   </si>
   <si>
-    <t>Rajesh@1234</t>
-  </si>
-  <si>
     <t>SHAHID</t>
   </si>
   <si>
-    <t>S9911070107s@</t>
-  </si>
-  <si>
     <t>KAVITA</t>
   </si>
   <si>
-    <t>KAvita@1234</t>
-  </si>
-  <si>
     <t>HARIPRAKASH</t>
   </si>
   <si>
-    <t>Harry@24</t>
-  </si>
-  <si>
     <t>techuserm1</t>
   </si>
   <si>
     <t>revathy</t>
   </si>
   <si>
-    <t>revathyvalid</t>
-  </si>
-  <si>
     <t>carunia</t>
   </si>
   <si>
-    <t>caruniavalid</t>
-  </si>
-  <si>
     <t>udhayaraj</t>
   </si>
   <si>
-    <t>udhayarajvalid</t>
-  </si>
-  <si>
     <t>shamili</t>
   </si>
   <si>
-    <t>shamilivalid</t>
-  </si>
-  <si>
     <t>vignesh</t>
   </si>
   <si>
-    <t>vigneshvalid</t>
-  </si>
-  <si>
     <t>arun</t>
   </si>
   <si>
-    <t>method1</t>
-  </si>
-  <si>
     <t>babu</t>
   </si>
   <si>
+    <t>balu</t>
+  </si>
+  <si>
+    <t>sakthi</t>
+  </si>
+  <si>
+    <t>sangeetha</t>
+  </si>
+  <si>
+    <t>chinthamani</t>
+  </si>
+  <si>
+    <t>nethaji</t>
+  </si>
+  <si>
+    <t>thirumalai</t>
+  </si>
+  <si>
+    <t>shankari</t>
+  </si>
+  <si>
+    <t>vigneshm</t>
+  </si>
+  <si>
+    <t>muthuvalid1</t>
+  </si>
+  <si>
+    <t>guruvalid1</t>
+  </si>
+  <si>
+    <t>satheeshvalid1</t>
+  </si>
+  <si>
+    <t>buvana</t>
+  </si>
+  <si>
+    <t>adbulvalid1</t>
+  </si>
+  <si>
+    <t>techadmin610</t>
+  </si>
+  <si>
+    <t>seyedvalid1</t>
+  </si>
+  <si>
+    <t>sivam1</t>
+  </si>
+  <si>
     <t>babuvalid</t>
   </si>
   <si>
-    <t>balu</t>
-  </si>
-  <si>
-    <t>baluvalid</t>
-  </si>
-  <si>
-    <t>sakthi</t>
-  </si>
-  <si>
-    <t>sangeetha</t>
-  </si>
-  <si>
-    <t>chinthamani</t>
-  </si>
-  <si>
-    <t>nethaji</t>
-  </si>
-  <si>
-    <t>thirumalai</t>
-  </si>
-  <si>
-    <t>shankari</t>
-  </si>
-  <si>
-    <t>vigneshm</t>
-  </si>
-  <si>
-    <t>muthuvalid1</t>
-  </si>
-  <si>
-    <t>Gulsma@.143</t>
-  </si>
-  <si>
-    <t>guruvalid1</t>
-  </si>
-  <si>
-    <t>Guru83*</t>
-  </si>
-  <si>
-    <t>satheeshvalid1</t>
-  </si>
-  <si>
-    <t>Satheesh@12345</t>
-  </si>
-  <si>
-    <t>revathyde</t>
-  </si>
-  <si>
-    <t>shankaride</t>
-  </si>
-  <si>
-    <t>buvana</t>
-  </si>
-  <si>
-    <t>buvanavalid</t>
-  </si>
-  <si>
-    <t>adbulvalid1</t>
-  </si>
-  <si>
-    <t>Method01#</t>
-  </si>
-  <si>
-    <t>techadmin610</t>
-  </si>
-  <si>
-    <t>seyedvalid1</t>
-  </si>
-  <si>
-    <t>SeyeValid@12</t>
-  </si>
-  <si>
-    <t>sivam1</t>
-  </si>
-  <si>
-    <t>Vasantha@0143</t>
-  </si>
-  <si>
-    <t>Pdgoc@321</t>
-  </si>
-  <si>
     <t>prabhuvalid1</t>
   </si>
   <si>
-    <t>Netmeds@valid1</t>
-  </si>
-  <si>
     <t>rameshvalid1</t>
   </si>
   <si>
-    <t>Ramesh@1</t>
-  </si>
-  <si>
     <t>pugazvalid1</t>
   </si>
   <si>
-    <t>Pugaz@1</t>
-  </si>
-  <si>
     <t>johnde1</t>
-  </si>
-  <si>
-    <t>john1</t>
-  </si>
-  <si>
-    <t>Vasantha@143</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,19 +253,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,9 +610,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -371,21 +864,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -434,7 +971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -469,7 +1006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -643,30 +1180,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -682,7 +1214,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -690,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -714,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -722,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -730,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -738,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -746,7 +1278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -754,7 +1286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -762,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -770,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -778,7 +1310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -786,7 +1318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -794,7 +1326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -802,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -810,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -818,7 +1350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -826,7 +1358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -836,25 +1368,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D96B25-DE5B-4BA6-9000-9256BA62850E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1047619047619" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -870,47 +1404,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -918,431 +1452,432 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>